--- a/program documents/GrumiosList_SprintBacklog3.xlsx
+++ b/program documents/GrumiosList_SprintBacklog3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raist\Desktop\School\COS 420\Project\program documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C276FA11-B09E-419A-A378-945343996AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11279724-0809-4B76-B2A4-3F25E62FFE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="3225" windowWidth="30645" windowHeight="17655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="3390" windowWidth="30645" windowHeight="17655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint i" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>User Story</t>
   </si>
@@ -461,9 +461,9 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -680,22 +680,92 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="8" spans="1:9" ht="252" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="260.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="312.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>

--- a/program documents/GrumiosList_SprintBacklog3.xlsx
+++ b/program documents/GrumiosList_SprintBacklog3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raist\Desktop\School\COS 420\Project\program documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raist\Desktop\School\COS 420 Project Git\COS420\program documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11279724-0809-4B76-B2A4-3F25E62FFE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD30E32F-F01C-46A4-ACDC-C9C497297534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="3390" windowWidth="30645" windowHeight="17655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint i" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>User Story</t>
   </si>
@@ -134,6 +134,33 @@
   <si>
     <t>2
 (Pushed to sprint 3 due to slowed development)</t>
+  </si>
+  <si>
+    <t>As a college student with a limited income, I would like the ability to search for recipes via ingredients, so I can use what I have to cook my meals</t>
+  </si>
+  <si>
+    <t>1.) Search for recipes via ingredients</t>
+  </si>
+  <si>
+    <t>We want users to have the ability to search for recipes based on ingredients they have in their homes.</t>
+  </si>
+  <si>
+    <t>As a stay-at-home dad, I would like the ability to search for recipes that make many portions would be great, so I can select meals that can feed all my kids.</t>
+  </si>
+  <si>
+    <t>1.) Search for recipes via the amounts of portions they make.</t>
+  </si>
+  <si>
+    <t>We want users to be able to search for recipes based on portion sizes.</t>
+  </si>
+  <si>
+    <t>As a person who loves cultural cuisine, I would like the ability to search for recipes via culture, so I can discover recipes from different cultures.</t>
+  </si>
+  <si>
+    <t>1.) Search for recipes based on cultures.</t>
+  </si>
+  <si>
+    <t>We want users to have the ability to search for recipes based on cultures from around the world.</t>
   </si>
 </sst>
 </file>
@@ -462,8 +489,8 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -680,21 +707,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="252" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
@@ -711,19 +738,19 @@
     </row>
     <row r="9" spans="1:9" ht="260.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>18</v>
@@ -740,19 +767,19 @@
     </row>
     <row r="10" spans="1:9" ht="312.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
